--- a/mmo_excel/xlsx/map.xlsx
+++ b/mmo_excel/xlsx/map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E989181-24A8-4B73-AC66-28EBB413F9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CCD56A-E7D6-448E-AFFF-AB562579FAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,27 +99,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>副本入口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>copyEnter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mapId":1, "x":1, "y":1, "x2":1,"y2":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"id":1,"mapId":2,"x":1,"y":2,"x2":1,"y2":2}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[{"id":1,"mapId":1,"x":1,"y":2,"x2":1,"y2":1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bornPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,11 +159,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -451,15 +444,14 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="6" width="51.5" customWidth="1"/>
+    <col min="5" max="5" width="64.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -476,10 +468,10 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -496,10 +488,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -539,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -553,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -570,10 +562,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -589,8 +581,8 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -599,5 +591,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mmo_excel/xlsx/map.xlsx
+++ b/mmo_excel/xlsx/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CCD56A-E7D6-448E-AFFF-AB562579FAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA727A86-A56E-46C1-92BE-D6754323FB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="2295" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否是副本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,22 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exitDoor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>副本需要人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,23 +79,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"id":1,"mapId":2,"x":1,"y":2,"x2":1,"y2":2}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"id":1,"mapId":1,"x":1,"y":2,"x2":1,"y2":1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bornPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
+    <t>恶魔的巢穴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,20 +405,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="64.125" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -462,19 +426,13 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -482,19 +440,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -507,14 +459,8 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -527,14 +473,8 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -544,14 +484,8 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -561,31 +495,19 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
